--- a/testCases/Test_Data/Test_Data.xlsx
+++ b/testCases/Test_Data/Test_Data.xlsx
@@ -546,12 +546,12 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>pass</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>fail</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>pass</t>
         </is>
       </c>
     </row>
